--- a/public/import.xlsx
+++ b/public/import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wampp\www\laravel-kanban\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F883B335-6A98-4082-BF51-FC42584BE424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986DBEE8-5149-4789-9CAA-CEAE1BD79FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F36AFFEB-23D8-4C6E-A954-0942272FDF87}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
   <si>
     <t>Vulnerability Name</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t>Nazia</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
   </si>
 </sst>
 </file>
@@ -615,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858131C2-A57C-440A-AEBF-308D19153D8E}">
-  <dimension ref="A1:AW2"/>
+  <dimension ref="A1:AY2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AT2" sqref="AT2"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,9 +633,10 @@
     <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="65.5546875" bestFit="1" customWidth="1"/>
     <col min="45" max="46" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -769,16 +776,22 @@
         <v>70</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
